--- a/rekap baru/2021-08.xlsx
+++ b/rekap baru/2021-08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zen\rekap-tahfidz\rekap baru\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10907E44-64C8-411E-AA74-08B6E3F38126}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B73AC3-54B0-4784-AB1E-11C2F870463B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 putra" sheetId="3" r:id="rId1"/>
@@ -19,17 +19,17 @@
     <sheet name="2 putri" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1 putra'!$A$1:$H$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'1 putri'!$A$1:$H$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'2 putra'!$A$1:$H$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'2 putri'!$A$1:$H$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1 putra'!$A$1:$H$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'1 putri'!$A$1:$H$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'2 putra'!$A$1:$H$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'2 putri'!$A$1:$H$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="119">
   <si>
     <t>DATA PENCAPAIAN TAHFIDZ</t>
   </si>
@@ -301,9 +301,6 @@
     <t>Al-Baqarah: 48</t>
   </si>
   <si>
-    <t>Al-Infithar</t>
-  </si>
-  <si>
     <t>Ath-Thariq</t>
   </si>
   <si>
@@ -380,18 +377,46 @@
   </si>
   <si>
     <t>An-Nisa: 59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Penanggung Jawab</t>
+  </si>
+  <si>
+    <t>Samarinda, 31 Agustus 2021</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ust. Muhammad Zaini, S.Psi.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -424,6 +449,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -533,96 +573,116 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -761,6 +821,502 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>335105</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>168851</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="904875" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF96EBCF-DE6E-47FD-B055-71D816F4A23D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="-297914">
+          <a:off x="6197310" y="4844760"/>
+          <a:ext cx="904875" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>536863</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1344506</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>847725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C9F9094-5F3F-4E33-B144-4B505B48C47D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3931227" y="0"/>
+          <a:ext cx="807643" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>160192</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="904875" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E02429AA-951E-47B4-9469-0A1352173515}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="-297914">
+          <a:off x="4171083" y="3286124"/>
+          <a:ext cx="904875" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>597474</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1405117</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>847725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ADC5F72-BEF9-44A0-BAE0-A512903FC8E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4061110" y="0"/>
+          <a:ext cx="807643" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>222538</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>168851</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="904875" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F36E001D-BE4E-4682-A67E-9E639B7F845A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="-297914">
+          <a:off x="4517447" y="3294783"/>
+          <a:ext cx="904875" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>891891</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>755693</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>847725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A220CC68-34E9-4EE9-902A-14F53ECF59A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810005" y="0"/>
+          <a:ext cx="807643" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="904875" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F92A794C-6FBC-4B7B-BADD-ECA6F0191FFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="-297914">
+          <a:off x="4500129" y="3840306"/>
+          <a:ext cx="904875" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>233795</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1041438</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>847725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EF09E29-DCF1-4694-994E-2F6188B268C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="0"/>
+          <a:ext cx="807643" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1024,49 +1580,49 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:9" ht="111.75" customHeight="1">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1076,30 +1632,30 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21" t="s">
+      <c r="F4" s="25"/>
+      <c r="G4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="21"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1112,14 +1668,14 @@
       <c r="F5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="27"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="38" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5">
@@ -1147,13 +1703,13 @@
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="39" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="20" t="s">
         <v>86</v>
       </c>
       <c r="E7" s="5">
@@ -1176,13 +1732,13 @@
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="38" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="5">
         <v>2</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="20" t="s">
         <v>87</v>
       </c>
       <c r="E8" s="5">
@@ -1204,13 +1760,13 @@
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="39" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="20" t="s">
         <v>88</v>
       </c>
       <c r="E9" s="5">
@@ -1232,13 +1788,13 @@
       <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="39" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="20" t="s">
         <v>89</v>
       </c>
       <c r="E10" s="5">
@@ -1260,24 +1816,24 @@
       <c r="A11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="39" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="5">
         <v>30</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>90</v>
+      <c r="D11" s="32" t="s">
+        <v>97</v>
       </c>
       <c r="E11" s="5">
         <v>8</v>
       </c>
       <c r="F11" s="10">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G11" s="11">
-        <f>7/20</f>
-        <v>0.35</v>
+        <f>8/20</f>
+        <v>0.4</v>
       </c>
       <c r="H11" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1288,14 +1844,14 @@
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="39" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="5">
         <v>30</v>
       </c>
-      <c r="D12" s="29" t="s">
-        <v>91</v>
+      <c r="D12" s="20" t="s">
+        <v>90</v>
       </c>
       <c r="E12" s="5">
         <v>3</v>
@@ -1316,14 +1872,14 @@
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="38" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="5">
         <v>4</v>
       </c>
-      <c r="D13" s="29" t="s">
-        <v>92</v>
+      <c r="D13" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="E13" s="5">
         <v>50</v>
@@ -1344,14 +1900,14 @@
       <c r="A14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="39" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="5">
         <v>5</v>
       </c>
-      <c r="D14" s="29" t="s">
-        <v>116</v>
+      <c r="D14" s="20" t="s">
+        <v>115</v>
       </c>
       <c r="E14" s="5">
         <v>50</v>
@@ -1372,14 +1928,14 @@
       <c r="A15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="39" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>93</v>
+      <c r="D15" s="20" t="s">
+        <v>92</v>
       </c>
       <c r="E15" s="5">
         <v>26</v>
@@ -1397,14 +1953,14 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
       <c r="G16" s="7">
         <f>COUNTIF(H6:H15,"Tercapai")</f>
         <v>4</v>
@@ -1414,8 +1970,50 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:9">
       <c r="A18" s="15"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="F19" s="33"/>
+      <c r="G19" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="F21" s="33"/>
+      <c r="G21" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="F24" s="33"/>
+      <c r="G24" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1460,7 +2058,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1469,49 +2068,49 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:9" ht="110.25" customHeight="1">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:9" ht="27.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1521,30 +2120,30 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21" t="s">
+      <c r="F4" s="25"/>
+      <c r="G4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="21"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1557,21 +2156,21 @@
       <c r="F5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="27"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="38" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="5">
         <v>30</v>
       </c>
-      <c r="D6" s="29" t="s">
-        <v>94</v>
+      <c r="D6" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="E6" s="5">
         <v>8</v>
@@ -1592,14 +2191,14 @@
       <c r="A7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="39" t="s">
         <v>35</v>
       </c>
       <c r="C7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>95</v>
+      <c r="D7" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="E7" s="5">
         <f>2+19</f>
@@ -1616,19 +2215,19 @@
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
-      <c r="I7" s="28"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="38" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="20" t="s">
         <v>89</v>
       </c>
       <c r="E8" s="5">
@@ -1645,20 +2244,20 @@
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
-      <c r="I8" s="28"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="38" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="5">
         <v>3</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>96</v>
+      <c r="D9" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="E9" s="5">
         <v>31</v>
@@ -1679,14 +2278,14 @@
       <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="39" t="s">
         <v>41</v>
       </c>
       <c r="C10" s="5">
         <v>2</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>97</v>
+      <c r="D10" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="E10" s="5">
         <f>12+19</f>
@@ -1708,14 +2307,14 @@
       <c r="A11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="39" t="s">
         <v>43</v>
       </c>
       <c r="C11" s="19">
         <v>30</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>98</v>
+      <c r="D11" s="21" t="s">
+        <v>97</v>
       </c>
       <c r="E11" s="19">
         <v>604</v>
@@ -1736,14 +2335,14 @@
       <c r="A12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="39" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="5">
         <v>3</v>
       </c>
-      <c r="D12" s="29" t="s">
-        <v>99</v>
+      <c r="D12" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="E12" s="5">
         <f>5+19</f>
@@ -1762,14 +2361,14 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
       <c r="G13" s="7">
         <f>COUNTIF(H6:H12,"Tercapai")</f>
         <v>4</v>
@@ -1779,18 +2378,54 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
+    <row r="16" spans="1:9">
+      <c r="F16" s="33"/>
+      <c r="G16" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="35"/>
+    </row>
+    <row r="17" spans="6:8">
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="35"/>
+    </row>
+    <row r="18" spans="6:8">
+      <c r="F18" s="33"/>
+      <c r="G18" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="35"/>
+    </row>
+    <row r="19" spans="6:8">
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="35"/>
+    </row>
+    <row r="20" spans="6:8">
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="35"/>
+    </row>
+    <row r="21" spans="6:8">
+      <c r="F21" s="33"/>
+      <c r="G21" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="35"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G12">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
@@ -1803,7 +2438,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1812,49 +2448,49 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:9" ht="111.75" customHeight="1">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:9" ht="24.75" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1864,30 +2500,30 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21" t="s">
+      <c r="F4" s="25"/>
+      <c r="G4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="21"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1900,21 +2536,21 @@
       <c r="F5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="27"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="38" t="s">
         <v>46</v>
       </c>
       <c r="C6" s="4">
         <v>7</v>
       </c>
-      <c r="D6" s="31" t="s">
-        <v>100</v>
+      <c r="D6" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="E6" s="4">
         <v>129</v>
@@ -1935,14 +2571,14 @@
       <c r="A7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="38" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="5">
         <v>10</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>101</v>
+      <c r="D7" s="20" t="s">
+        <v>100</v>
       </c>
       <c r="E7" s="5">
         <v>208</v>
@@ -1963,14 +2599,14 @@
       <c r="A8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="39" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="5">
         <v>6</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>102</v>
+      <c r="D8" s="20" t="s">
+        <v>101</v>
       </c>
       <c r="E8" s="5">
         <v>114</v>
@@ -1986,20 +2622,20 @@
         <f t="shared" si="1"/>
         <v>Tercapai</v>
       </c>
-      <c r="I8" s="28"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="38" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="4">
         <v>7</v>
       </c>
-      <c r="D9" s="31" t="s">
-        <v>100</v>
+      <c r="D9" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="E9" s="5">
         <v>129</v>
@@ -2015,20 +2651,20 @@
         <f t="shared" si="1"/>
         <v>Belum Tercapai</v>
       </c>
-      <c r="I9" s="28"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="38" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="5">
         <v>9</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>103</v>
+      <c r="D10" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="E10" s="5">
         <v>178</v>
@@ -2049,14 +2685,14 @@
       <c r="A11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="39" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="5">
         <v>8</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>104</v>
+      <c r="D11" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="E11" s="5">
         <v>167</v>
@@ -2077,14 +2713,14 @@
       <c r="A12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="39" t="s">
         <v>58</v>
       </c>
       <c r="C12" s="5">
         <v>4</v>
       </c>
-      <c r="D12" s="29" t="s">
-        <v>105</v>
+      <c r="D12" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="E12" s="5">
         <v>50</v>
@@ -2102,14 +2738,14 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
       <c r="G13" s="7">
         <f>COUNTIF(H6:H12,"Tercapai")</f>
         <v>2</v>
@@ -2124,19 +2760,53 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="15"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="35"/>
+    </row>
+    <row r="17" spans="6:8">
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="35"/>
+    </row>
+    <row r="18" spans="6:8">
+      <c r="F18" s="33"/>
+      <c r="G18" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="35"/>
+    </row>
+    <row r="19" spans="6:8">
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="35"/>
+    </row>
+    <row r="20" spans="6:8">
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="35"/>
+    </row>
+    <row r="21" spans="6:8">
+      <c r="F21" s="33"/>
+      <c r="G21" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G12">
     <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
@@ -2150,6 +2820,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2158,49 +2829,49 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:9" ht="109.5" customHeight="1">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="1:9" ht="19.5" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2210,30 +2881,30 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21" t="s">
+      <c r="F4" s="25"/>
+      <c r="G4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="29" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="21"/>
-      <c r="B5" s="27"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
@@ -2246,21 +2917,21 @@
       <c r="F5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="27"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="38" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="4">
         <v>4</v>
       </c>
-      <c r="D6" s="31" t="s">
-        <v>106</v>
+      <c r="D6" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="E6" s="4">
         <f>62+19</f>
@@ -2282,14 +2953,14 @@
       <c r="A7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="38" t="s">
         <v>62</v>
       </c>
       <c r="C7" s="5">
         <v>5</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>107</v>
+      <c r="D7" s="20" t="s">
+        <v>106</v>
       </c>
       <c r="E7" s="5">
         <f>80+19</f>
@@ -2311,14 +2982,14 @@
       <c r="A8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="39" t="s">
         <v>64</v>
       </c>
       <c r="C8" s="5">
         <v>9</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>108</v>
+      <c r="D8" s="20" t="s">
+        <v>107</v>
       </c>
       <c r="E8" s="5">
         <f>142+19</f>
@@ -2335,20 +3006,20 @@
         <f t="shared" si="0"/>
         <v>Tercapai</v>
       </c>
-      <c r="I8" s="28"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="38" t="s">
         <v>66</v>
       </c>
       <c r="C9" s="5">
         <v>8</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>109</v>
+      <c r="D9" s="20" t="s">
+        <v>108</v>
       </c>
       <c r="E9" s="5">
         <f>141+19</f>
@@ -2365,20 +3036,20 @@
         <f t="shared" si="0"/>
         <v>Belum Tercapai</v>
       </c>
-      <c r="I9" s="28"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="38" t="s">
         <v>68</v>
       </c>
       <c r="C10" s="5">
         <v>4</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>110</v>
+      <c r="D10" s="20" t="s">
+        <v>109</v>
       </c>
       <c r="E10" s="5">
         <v>76</v>
@@ -2399,14 +3070,14 @@
       <c r="A11" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="39" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="5">
         <v>5</v>
       </c>
-      <c r="D11" s="29" t="s">
-        <v>111</v>
+      <c r="D11" s="20" t="s">
+        <v>110</v>
       </c>
       <c r="E11" s="5">
         <f>84+19</f>
@@ -2428,14 +3099,14 @@
       <c r="A12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="39" t="s">
         <v>72</v>
       </c>
       <c r="C12" s="5">
         <v>11</v>
       </c>
-      <c r="D12" s="29" t="s">
-        <v>112</v>
+      <c r="D12" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="E12" s="5">
         <f>182+19</f>
@@ -2457,14 +3128,14 @@
       <c r="A13" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="39" t="s">
         <v>74</v>
       </c>
       <c r="C13" s="5">
         <v>11</v>
       </c>
-      <c r="D13" s="29" t="s">
-        <v>113</v>
+      <c r="D13" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="E13" s="5">
         <f>182+19</f>
@@ -2486,14 +3157,14 @@
       <c r="A14" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="39" t="s">
         <v>76</v>
       </c>
       <c r="C14" s="5">
         <v>5</v>
       </c>
-      <c r="D14" s="29" t="s">
-        <v>114</v>
+      <c r="D14" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="E14" s="5">
         <f>88+19</f>
@@ -2515,14 +3186,14 @@
       <c r="A15" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="39" t="s">
         <v>78</v>
       </c>
       <c r="C15" s="5">
         <v>3</v>
       </c>
-      <c r="D15" s="29" t="s">
-        <v>115</v>
+      <c r="D15" s="20" t="s">
+        <v>114</v>
       </c>
       <c r="E15" s="5">
         <v>52</v>
@@ -2540,14 +3211,14 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
       <c r="G16" s="7">
         <f>COUNTIF(H6:H15,"Tercapai")</f>
         <v>3</v>
@@ -2557,24 +3228,58 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:8">
       <c r="A18" s="15"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:8">
       <c r="A19" s="15"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="35"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="35"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="F21" s="33"/>
+      <c r="G21" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="35"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="35"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="35"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="F24" s="33"/>
+      <c r="G24" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H24" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="G6:G15">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
@@ -2587,6 +3292,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="86" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>